--- a/Data/Agencies.xlsx
+++ b/Data/Agencies.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\rana.saber\Documents\GitHub\TravelRequestProcess\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -50,9 +50,6 @@
     <t>ayashegazy@gmail.com</t>
   </si>
   <si>
-    <t>eng.aa98@gmail.com</t>
-  </si>
-  <si>
     <t>khaledrisha@gmail.com</t>
   </si>
   <si>
@@ -60,12 +57,15 @@
   </si>
   <si>
     <t>mohamed.hany.fared@outlook.com</t>
+  </si>
+  <si>
+    <t>ranasaber1996@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -398,7 +398,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +420,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -428,7 +428,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -444,7 +444,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -452,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
